--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\e7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1B1D20-A0C4-48E6-B172-50A72ACD538B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142A32E4-0BEC-41D6-A847-64E7E0D00267}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="16440" activeTab="6" xr2:uid="{7651E26D-F539-4930-BA21-59E520D4B711}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="16440" xr2:uid="{7651E26D-F539-4930-BA21-59E520D4B711}"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="104">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,15 +416,39 @@
     <t>EV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>wp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -472,13 +496,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2974B5D3-0E92-4AEC-8598-1DFECEB99B32}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -822,9 +846,14 @@
     <col min="17" max="17" width="4.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" customWidth="1"/>
+    <col min="21" max="21" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="3.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,8 +911,26 @@
       <c r="S1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -942,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1001,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1060,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1119,7 +1166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1178,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1237,7 +1284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1296,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -11385,7 +11432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D486B0D-46E7-4E4E-B319-0526BF3B4852}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
